--- a/2026GRB_CN.xlsx
+++ b/2026GRB_CN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\honor\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED51E940-095B-4DAB-9CDB-F18C6682B60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82481C60-31D1-44AC-8FB3-1FF0CDA39E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1470" yWindow="1470" windowWidth="14700" windowHeight="11295" xr2:uid="{3153F9F9-9223-4A3D-8EC0-7DA9DFDD9596}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>birth</t>
   </si>
@@ -58,6 +58,10 @@
   </si>
   <si>
     <t>김호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김숙진</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -457,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE07D3A-0D61-4189-A587-0B55BDCEDE63}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -519,6 +523,23 @@
         <v>21</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>19810814</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
